--- a/loaded_influencer_data/ugcby.carla/ugcby.carla_video.xlsx
+++ b/loaded_influencer_data/ugcby.carla/ugcby.carla_video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -508,17 +508,17 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7486909282449968406</t>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7488272243533925654</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1360</v>
+        <v>1553</v>
       </c>
       <c r="C2" t="n">
-        <v>271</v>
+        <v>202</v>
       </c>
       <c r="D2" t="n">
-        <v>48</v>
+        <v>267</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -528,248 +528,250 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>manifesting 🧘🏻‍♀️✨ #manifesting #claim #grateful #girls #girlythings #softgirl #softgirlaesthetic</t>
+          <t>gooooo les nouvelles besties 💌💌
+#engagement #team #teamwork #teamworkmakesthedreamwork</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>23.45588235294118</v>
+        <v>30.19961365099807</v>
       </c>
       <c r="I2" t="n">
-        <v>19.9264705882353</v>
+        <v>13.00708306503542</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>3.529411764705882</v>
+        <v>17.19253058596265</v>
       </c>
       <c r="L2" t="n">
-        <v>1.470588235294118</v>
+        <v>1.28783000643915</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-29</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7488002456018799894</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>916</v>
+      </c>
+      <c r="C3" t="n">
+        <v>150</v>
+      </c>
+      <c r="D3" t="n">
+        <v>106</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>12</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>On découvre ensemble mes nouveaux bijoux @Léaya Jewellery , ils sont trop canons !! 🤍
+Si vous aussi vous voulez craquer sur un ou plusieurs bijoux, vous avez -15% sur tout le site avec le code Carla15 ✨💌</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>27.94759825327511</v>
+      </c>
+      <c r="I3" t="n">
+        <v>16.37554585152838</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>11.57205240174673</v>
+      </c>
+      <c r="L3" t="n">
+        <v>1.310043668122271</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="inlineStr">
+        <is>
+          <t>2025-04-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7487273659388808470</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>1308</v>
+      </c>
+      <c r="C4" t="n">
+        <v>293</v>
+      </c>
+      <c r="D4" t="n">
+        <v>124</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>27</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>🧚🏻‍♀️💗✨🎀🧘🏻‍♀️🪽 #girls #girlythings #softgirl #softgirlaesthetic #aestheticvideos #girlygirl</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>31.88073394495413</v>
+      </c>
+      <c r="I4" t="n">
+        <v>22.40061162079511</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>9.480122324159021</v>
+      </c>
+      <c r="L4" t="n">
+        <v>2.064220183486239</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7486909282449968406</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>2135</v>
+      </c>
+      <c r="C5" t="n">
+        <v>476</v>
+      </c>
+      <c r="D5" t="n">
+        <v>104</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>manifesting 🧘🏻‍♀️✨ #manifesting #claim #grateful #girls #girlythings #softgirl #softgirlaesthetic</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>27.16627634660422</v>
+      </c>
+      <c r="I5" t="n">
+        <v>22.29508196721311</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>4.871194379391101</v>
+      </c>
+      <c r="L5" t="n">
+        <v>1.733021077283372</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>2025-03-29</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7486174820518858006</t>
         </is>
       </c>
-      <c r="B3" t="n">
-        <v>901</v>
-      </c>
-      <c r="C3" t="n">
-        <v>167</v>
-      </c>
-      <c r="D3" t="n">
-        <v>121</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>15</v>
-      </c>
-      <c r="G3" t="inlineStr">
+      <c r="B6" t="n">
+        <v>1114</v>
+      </c>
+      <c r="C6" t="n">
+        <v>212</v>
+      </c>
+      <c r="D6" t="n">
+        <v>136</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" t="inlineStr">
         <is>
           <t>💙
 #ootd #outfit #tenuedujour #girls #fashionstyle #jeans #totallook #outfitinspo #ootdinspo #lookdujour</t>
         </is>
       </c>
-      <c r="H3" t="n">
-        <v>31.96448390677026</v>
-      </c>
-      <c r="I3" t="n">
-        <v>18.53496115427303</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0</v>
-      </c>
-      <c r="K3" t="n">
-        <v>13.42952275249722</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.664816870144284</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0</v>
-      </c>
-      <c r="N3" t="inlineStr">
+      <c r="H6" t="n">
+        <v>31.23877917414722</v>
+      </c>
+      <c r="I6" t="n">
+        <v>19.03052064631957</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>12.20825852782765</v>
+      </c>
+      <c r="L6" t="n">
+        <v>1.436265709156194</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="inlineStr">
         <is>
           <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7486066746009439510</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>717</v>
-      </c>
-      <c r="C4" t="n">
-        <v>99</v>
-      </c>
-      <c r="D4" t="n">
-        <v>82</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0</v>
-      </c>
-      <c r="F4" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>J’ai trouvé le parfum parfait pour le printemps ! 🌸✨ Le nouveau Solinotes Litchi, une fragrance fruitée et pétillante qui sent incroyablement bon. En plus d’être vegan et fabriqué en France 🇫🇷, il est parfait pour ajouter une touche fraîche et gourmande à ma routine. 🙊</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>25.24407252440725</v>
-      </c>
-      <c r="I4" t="n">
-        <v>13.80753138075314</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>11.43654114365411</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.394700139470014</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-27</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7485334469512138006</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>4023</v>
-      </c>
-      <c r="C5" t="n">
-        <v>516</v>
-      </c>
-      <c r="D5" t="n">
-        <v>350</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>29</v>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>J’ai trouvé le parfum parfait pour le printemps ! 🌸✨ Le nouveau Solinotes Litchi, une fragrance fruitée et pétillante qui sent incroyablement bon. En plus d’être vegan et fabriqué en France 🇫🇷, il est parfait pour ajouter une touche fraîche et gourmande à ma routine. 🙊</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>21.52622421078797</v>
-      </c>
-      <c r="I5" t="n">
-        <v>12.82624906785981</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0</v>
-      </c>
-      <c r="K5" t="n">
-        <v>8.699975142928162</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.7208550832711906</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0</v>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>2025-03-25</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7484572746324741398</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1377</v>
-      </c>
-      <c r="C6" t="n">
-        <v>329</v>
-      </c>
-      <c r="D6" t="n">
-        <v>165</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>30</v>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>🤎✨🧸🪞#whatsinmybag #girlessentials #aestheticvideos #thatgirl #thatgirlaesthetic #pinterest</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>35.87509077705156</v>
-      </c>
-      <c r="I6" t="n">
-        <v>23.89251997095134</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0</v>
-      </c>
-      <c r="K6" t="n">
-        <v>11.98257080610022</v>
-      </c>
-      <c r="L6" t="n">
-        <v>2.178649237472767</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7484277995889265942</t>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7486066746009439510</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>859</v>
+        <v>954</v>
       </c>
       <c r="C7" t="n">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="D7" t="n">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -779,1816 +781,1816 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>J’ai testé le fluide matifiant de chez @L’Occitane France 🇫🇷 et je dois dire que je suis agréablement surprise. Si toi aussi tu as la peau mixte à grasse, tu sais à quel point il peut être difficile de garder un teint mat sans assécher la peau.</t>
+          <t>J’ai trouvé le parfum parfait pour le printemps ! 🌸✨ Le nouveau Solinotes Litchi, une fragrance fruitée et pétillante qui sent incroyablement bon. En plus d’être vegan et fabriqué en France 🇫🇷, il est parfait pour ajouter une touche fraîche et gourmande à ma routine. 🙊</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>23.39930151338766</v>
+        <v>21.80293501048218</v>
       </c>
       <c r="I7" t="n">
-        <v>16.76367869615832</v>
+        <v>12.89308176100629</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.635622817229336</v>
+        <v>8.909853249475891</v>
       </c>
       <c r="L7" t="n">
-        <v>1.164144353899884</v>
+        <v>1.048218029350105</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7484216018928274710</t>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7485334469512138006</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>919</v>
+        <v>4546</v>
       </c>
       <c r="C8" t="n">
-        <v>175</v>
+        <v>598</v>
       </c>
       <c r="D8" t="n">
-        <v>101</v>
+        <v>412</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>7</v>
+        <v>32</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>J’ai testé les gloss 💄 de chez @for-me.fr et ils sont incroyables !! La texture est hyper agréable, on sent que ça hydrate bien les lèvres et surtout ils ne sont pas collants ! En plus, ils sont enrichis en huiles nourrissantes comme l’huile d’olive et de tournesol, avec du beurre de karité et de la vitamine E pour des lèvres douces et protégées. Le rendu est ultra brillant, légèrement pailleté, et donne un effet repulpé hyper joli. Franchement, si vous cherchez un gloss confortable et qui prend soin de vos lèvres, foncez ! ✨ Et vous quelle est votre teinte préférée ? 🫦</t>
+          <t>J’ai trouvé le parfum parfait pour le printemps ! 🌸✨ Le nouveau Solinotes Litchi, une fragrance fruitée et pétillante qui sent incroyablement bon. En plus d’être vegan et fabriqué en France 🇫🇷, il est parfait pour ajouter une touche fraîche et gourmande à ma routine. 🙊</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>30.03264417845484</v>
+        <v>22.21733391992961</v>
       </c>
       <c r="I8" t="n">
-        <v>19.04243743199129</v>
+        <v>13.15442146942367</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>10.99020674646355</v>
+        <v>9.062912450505939</v>
       </c>
       <c r="L8" t="n">
-        <v>0.7616974972796519</v>
+        <v>0.7039155301363836</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>2025-03-22</t>
+          <t>2025-03-24</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7483451711273684246</t>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7484572746324741398</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10600</v>
+        <v>1588</v>
       </c>
       <c r="C9" t="n">
-        <v>424</v>
+        <v>373</v>
       </c>
       <c r="D9" t="n">
-        <v>103</v>
+        <v>174</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>🫦🫦 #nails #nailsart #nailinspo #newnails #girls #girly #fyp</t>
+          <t>🤎✨🧸🪞#whatsinmybag #girlessentials #aestheticvideos #thatgirl #thatgirlaesthetic #pinterest</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>4.971698113207547</v>
+        <v>34.44584382871537</v>
       </c>
       <c r="I9" t="n">
-        <v>4</v>
+        <v>23.48866498740554</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0.9716981132075472</v>
+        <v>10.95717884130982</v>
       </c>
       <c r="L9" t="n">
-        <v>0.4433962264150944</v>
+        <v>2.141057934508816</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-22</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7484277995889265942</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>961</v>
+      </c>
+      <c r="C10" t="n">
+        <v>165</v>
+      </c>
+      <c r="D10" t="n">
+        <v>57</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>11</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>J’ai testé le fluide matifiant de chez @L’Occitane France 🇫🇷 et je dois dire que je suis agréablement surprise. Si toi aussi tu as la peau mixte à grasse, tu sais à quel point il peut être difficile de garder un teint mat sans assécher la peau.</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>23.10093652445369</v>
+      </c>
+      <c r="I10" t="n">
+        <v>17.16961498439126</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>5.931321540062435</v>
+      </c>
+      <c r="L10" t="n">
+        <v>1.144640998959417</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7484216018928274710</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>919</v>
+      </c>
+      <c r="C11" t="n">
+        <v>175</v>
+      </c>
+      <c r="D11" t="n">
+        <v>101</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>7</v>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>J’ai testé les gloss 💄 de chez @for-me.fr et ils sont incroyables !! La texture est hyper agréable, on sent que ça hydrate bien les lèvres et surtout ils ne sont pas collants ! En plus, ils sont enrichis en huiles nourrissantes comme l’huile d’olive et de tournesol, avec du beurre de karité et de la vitamine E pour des lèvres douces et protégées. Le rendu est ultra brillant, légèrement pailleté, et donne un effet repulpé hyper joli. Franchement, si vous cherchez un gloss confortable et qui prend soin de vos lèvres, foncez ! ✨ Et vous quelle est votre teinte préférée ? 🫦</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>30.03264417845484</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.04243743199129</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>10.99020674646355</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.7616974972796519</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7483451711273684246</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>10600</v>
+      </c>
+      <c r="C12" t="n">
+        <v>424</v>
+      </c>
+      <c r="D12" t="n">
+        <v>103</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>47</v>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>🫦🫦 #nails #nailsart #nailinspo #newnails #girls #girly #fyp</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4.971698113207547</v>
+      </c>
+      <c r="I12" t="n">
+        <v>4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0.9716981132075472</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.4433962264150944</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7483119394655161622</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B13" t="n">
         <v>767</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C13" t="n">
         <v>140</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D13" t="n">
         <v>66</v>
       </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
         <v>6</v>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>Je suis totalement fan des bijoux de chez @maison.lissia ils sont à la fois élégants et intemporels 😍
 Vous aussi, laissez-vous séduire par leurs créations uniques ✨</t>
         </is>
       </c>
-      <c r="H10" t="n">
+      <c r="H13" t="n">
         <v>26.85788787483703</v>
       </c>
-      <c r="I10" t="n">
+      <c r="I13" t="n">
         <v>18.25293350717079</v>
       </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
         <v>8.604954367666231</v>
       </c>
-      <c r="L10" t="n">
+      <c r="L13" t="n">
         <v>0.7822685788787485</v>
       </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7482798799904148758</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B14" t="n">
         <v>953</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C14" t="n">
         <v>200</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D14" t="n">
         <v>91</v>
       </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
         <v>12</v>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>#girls #girlythings #pinkstuff #pinktok #pinkgirl #girlygirl #girly #girlthings #girltherapy #pinkaesthetic</t>
         </is>
       </c>
-      <c r="H11" t="n">
+      <c r="H14" t="n">
         <v>30.53515215110178</v>
       </c>
-      <c r="I11" t="n">
+      <c r="I14" t="n">
         <v>20.98635886673662</v>
       </c>
-      <c r="J11" t="n">
-        <v>0</v>
-      </c>
-      <c r="K11" t="n">
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
         <v>9.548793284365162</v>
       </c>
-      <c r="L11" t="n">
+      <c r="L14" t="n">
         <v>1.259181532004197</v>
       </c>
-      <c r="M11" t="n">
-        <v>0</v>
-      </c>
-      <c r="N11" t="inlineStr">
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7482494072947526934</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B15" t="n">
         <v>2713</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C15" t="n">
         <v>188</v>
       </c>
-      <c r="D12" t="n">
+      <c r="D15" t="n">
         <v>48</v>
       </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
         <v>9</v>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>arrêtez de nous faire des faux espoirs comme ça 😩😩
 #contentcreator #collaboration #arnaque</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H15" t="n">
         <v>8.698857353483229</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I15" t="n">
         <v>6.929598230740877</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
         <v>1.769259122742352</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L15" t="n">
         <v>0.3317360855141909</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
         <is>
           <t>2025-03-17</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7482363983878491415</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B16" t="n">
         <v>738</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C16" t="n">
         <v>132</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D16" t="n">
         <v>60</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
         <v>9</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>3 idées de look avec mon collier @THEM Paris ,
 lequel vous préférez? 🩷
 #collierpersonnalisé #necklace #ootd</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H16" t="n">
         <v>26.01626016260163</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I16" t="n">
         <v>17.88617886178862</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
         <v>8.130081300813007</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L16" t="n">
         <v>1.219512195121951</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
         <is>
           <t>2025-03-16</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7481985432876485910</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B17" t="n">
         <v>13000</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C17" t="n">
         <v>171</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D17" t="n">
         <v>66</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
         <v>15</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>3 idées de look avec mon collier @THEM Paris ,
 lequel vous préférez? 🩷
 #collierpersonnalisé #necklace #ootd</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H17" t="n">
         <v>1.823076923076923</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I17" t="n">
         <v>1.315384615384615</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
         <v>0.5076923076923077</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L17" t="n">
         <v>0.1153846153846154</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7481623502873758998</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B18" t="n">
         <v>942</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C18" t="n">
         <v>130</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D18" t="n">
         <v>54</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
         <v>11</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>J’ai créé mon collier entièrement personnalisé sur le site @THEM Paris , et je suis trop fan du résultat ! 🤩 J’ai pu choisir les charms parmi plus de 100 modèles pour un bijou qui me ressemble vraiment. En plus, il est en acier inoxydable, donc je peux le garder sous l’eau sans souci ! Tout est fait à la main par une jeune créatrice passionnée, donc les délais varient entre 2 et 14 jours selon les stocks.</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H18" t="n">
         <v>19.53290870488323</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I18" t="n">
         <v>13.80042462845011</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
         <v>5.732484076433122</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L18" t="n">
         <v>1.167728237791932</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7481340620338924822</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B19" t="n">
         <v>853</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C19" t="n">
         <v>115</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D19" t="n">
         <v>17</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
         <v>6</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>the best time to buy 🙊👛💓✨
 #girlythings #girls #girltherapy #pinkstuff #pinklover #pinterest</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H19" t="n">
         <v>15.47479484173505</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I19" t="n">
         <v>13.48182883939039</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>1.992966002344666</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L19" t="n">
         <v>0.7033997655334115</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7480880635981073686</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B20" t="n">
         <v>2968</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C20" t="n">
         <v>641</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D20" t="n">
         <v>96</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>38</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>💆🏻‍♀️🎀🧘🏻‍♀️🫧🩰 #girlythings #girls #girltherapy #pinkstuff #selfcare #pinterest #aestheticvideos</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H20" t="n">
         <v>24.83153638814016</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I20" t="n">
         <v>21.59703504043127</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>3.234501347708895</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L20" t="n">
         <v>1.280323450134771</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-12</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7480505963837967638</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B21" t="n">
         <v>2519</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C21" t="n">
         <v>509</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D21" t="n">
         <v>64</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>40</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>all essentials 🫦✨👛🫧💅
 #makeup #makeupbag #whatsinmybag #essentials #girlythings #girls</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H21" t="n">
         <v>22.74712187375943</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I21" t="n">
         <v>20.20643112346169</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>2.540690750297737</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L21" t="n">
         <v>1.587931718936086</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7480189060695264534</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B22" t="n">
         <v>1680</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C22" t="n">
         <v>289</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D22" t="n">
         <v>70</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>19</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>welcome new bestiesss 🫶🏼🫦
 #girlythings #girls #girlssupportgirls #girltherapy #pinkstuff #selfcare</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H22" t="n">
         <v>21.36904761904762</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I22" t="n">
         <v>17.20238095238095</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>4.166666666666666</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L22" t="n">
         <v>1.130952380952381</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-10</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7478685415436848406</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B23" t="n">
         <v>933</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C23" t="n">
         <v>152</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D23" t="n">
         <v>38</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>4</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>Test des patchs anti-perfections Focus Skincare ! Résultats après une nuit 🌙✨@focusskincare
 produits offerts*</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H23" t="n">
         <v>20.36441586280815</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
         <v>16.29153269024652</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>4.072883172561629</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L23" t="n">
         <v>0.4287245444801715</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-06</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7477620097662586134</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>2000</v>
-      </c>
-      <c r="C21" t="n">
-        <v>398</v>
-      </c>
-      <c r="D21" t="n">
-        <v>65</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>21</v>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>🫦🫦 #girls #girlythings #girlssupportgirls #girltherapy #pinkstuff #pinterest #aestheticvideos #girlytok</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>23.15</v>
-      </c>
-      <c r="I21" t="n">
-        <v>19.9</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="L21" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>2025-03-04</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7477194004044713218</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>2162</v>
-      </c>
-      <c r="C22" t="n">
-        <v>167</v>
-      </c>
-      <c r="D22" t="n">
-        <v>32</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>11</v>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>🎀🪩 #cutejeans #jeans #jeansoutfit #bow #newyorker #outfit #outfitinspo #ootdinspo #nouvellecollection</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>9.204440333024976</v>
-      </c>
-      <c r="I22" t="n">
-        <v>7.724329324699353</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>1.480111008325625</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0.5087881591119334</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7476845944412048642</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>877</v>
-      </c>
-      <c r="C23" t="n">
-        <v>149</v>
-      </c>
-      <c r="D23" t="n">
-        <v>38</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>🎀🪩 #cutejeans #jeans #jeansoutfit #bow #newyorker #outfit #outfitinspo #ootdinspo #nouvellecollection</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>21.32269099201825</v>
-      </c>
-      <c r="I23" t="n">
-        <v>16.98973774230331</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>4.332953249714937</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0.6841505131128849</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
-        <is>
-          <t>2025-03-01</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7477620097662586134</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>2000</v>
+      </c>
+      <c r="C24" t="n">
+        <v>398</v>
+      </c>
+      <c r="D24" t="n">
+        <v>65</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>21</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>🫦🫦 #girls #girlythings #girlssupportgirls #girltherapy #pinkstuff #pinterest #aestheticvideos #girlytok</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>23.15</v>
+      </c>
+      <c r="I24" t="n">
+        <v>19.9</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="L24" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>2025-03-04</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7477194004044713218</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>2162</v>
+      </c>
+      <c r="C25" t="n">
+        <v>167</v>
+      </c>
+      <c r="D25" t="n">
+        <v>32</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>11</v>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>🎀🪩 #cutejeans #jeans #jeansoutfit #bow #newyorker #outfit #outfitinspo #ootdinspo #nouvellecollection</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9.204440333024976</v>
+      </c>
+      <c r="I25" t="n">
+        <v>7.724329324699353</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1.480111008325625</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0.5087881591119334</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7476845944412048642</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>877</v>
+      </c>
+      <c r="C26" t="n">
+        <v>149</v>
+      </c>
+      <c r="D26" t="n">
+        <v>38</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>🎀🪩 #cutejeans #jeans #jeansoutfit #bow #newyorker #outfit #outfitinspo #ootdinspo #nouvellecollection</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>21.32269099201825</v>
+      </c>
+      <c r="I26" t="n">
+        <v>16.98973774230331</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>4.332953249714937</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0.6841505131128849</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>2025-03-01</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
+        <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7476502640663432450</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B27" t="n">
         <v>739</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C27" t="n">
         <v>126</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D27" t="n">
         <v>33</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>4</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>@Nellamorina_ 🩷🩷🩷 foncez sur son compte pour des personnalisations de qualité 😍
 #nellamorina</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H27" t="n">
         <v>21.51556156968877</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I27" t="n">
         <v>17.05006765899865</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>4.465493910690121</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L27" t="n">
         <v>0.5412719891745602</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7476408886241561878</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B28" t="n">
         <v>5222</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C28" t="n">
         <v>718</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D28" t="n">
         <v>61</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>17</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>il manque les glaçonssss 😩
 @Matcha &amp; CO
 #morningroutine #morningmatcha #matcha #matchatok</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H28" t="n">
         <v>14.91765607047108</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I28" t="n">
         <v>13.74952125622367</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>1.168134814247415</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L28" t="n">
         <v>0.3255457679050172</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7476138922360311062</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B29" t="n">
         <v>973</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C29" t="n">
         <v>175</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D29" t="n">
         <v>89</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>11</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>lets goooo 🤝🫦💕
 #teamworkmakesthedreamwork #teamwork #10k #girlssupportgirls #contentcreator</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H29" t="n">
         <v>27.13257965056527</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I29" t="n">
         <v>17.98561151079137</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>9.146968139773895</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L29" t="n">
         <v>1.130524152106886</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-02-28</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7476061220273999126</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B30" t="n">
         <v>1321</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C30" t="n">
         <v>182</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D30" t="n">
         <v>38</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>14</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>@Flying Tiger Copenhagen France 💘 #flyingtigercopenhagen #flyingtiger #nouveauté</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H30" t="n">
         <v>16.65404996214989</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I30" t="n">
         <v>13.777441332324</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>2.87660862982589</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L30" t="n">
         <v>1.059803179409538</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7475775957664697623</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B31" t="n">
         <v>656</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C31" t="n">
         <v>93</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D31" t="n">
         <v>21</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>2</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>@Lueur Secrète 🕯️🤍 best gift idea ✨
 produit offert*
 #lueursecrete #bougie #bougiepersonnalisée</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H31" t="n">
         <v>17.3780487804878</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I31" t="n">
         <v>14.17682926829268</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.201219512195122</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L31" t="n">
         <v>0.3048780487804878</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7475372039688162582</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B32" t="n">
         <v>1025</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C32" t="n">
         <v>144</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D32" t="n">
         <v>36</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>1</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>@Jellycat love all of them 🤩❤️‍🔥
 #jellycat #jellycatcollection #jellycathaul #unboxinghaul #cutethings #girlythings #fyp</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H32" t="n">
         <v>17.5609756097561</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I32" t="n">
         <v>14.04878048780488</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>3.51219512195122</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L32" t="n">
         <v>0.0975609756097561</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7474985422347717910</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B33" t="n">
         <v>7599</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C33" t="n">
         <v>351</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D33" t="n">
         <v>16</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>12</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>pink stuff are dangerous 🥹💘
 #pinkstuff #girlythings #pinklover #girls #girltherapy #lipbalm #makeup</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H33" t="n">
         <v>4.829582839847348</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I33" t="n">
         <v>4.619028819581525</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>0.2105540202658245</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L33" t="n">
         <v>0.1579155151993683</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7474619251845025046</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B34" t="n">
         <v>1212</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C34" t="n">
         <v>158</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D34" t="n">
         <v>40</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>6</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>💆🏻‍♀️💆🏻‍♀️ #selfcare #selfcareroutine #welness #spa #dayinmylife #spaday #girltherapy #girls #skincare</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H34" t="n">
         <v>16.33663366336634</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I34" t="n">
         <v>13.03630363036304</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>3.3003300330033</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L34" t="n">
         <v>0.495049504950495</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7474211918312443158</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B35" t="n">
         <v>3817</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C35" t="n">
         <v>362</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D35" t="n">
         <v>24</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>16</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>@NEW YORKER 🩷 #girlythings #pyjamas #pinklover #pyjamaset #aestheticvibes #newyorker #girls #fyp</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H35" t="n">
         <v>10.1126539166885</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I35" t="n">
         <v>9.483887870055018</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>0.6287660466334818</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L35" t="n">
         <v>0.4191773644223212</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7473865706606464278</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B36" t="n">
         <v>1629</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C36" t="n">
         <v>304</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D36" t="n">
         <v>40</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>19</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>welcome 🥹🫶🏼
 #teamwork #teamworkmakesthedreamwork #girlssupportgirls #contentcreator #girltherapy</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H36" t="n">
         <v>21.11724984653161</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I36" t="n">
         <v>18.66175567833026</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.45549416820135</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L36" t="n">
         <v>1.166359729895641</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7473499420076608790</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B37" t="n">
         <v>16000</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C37" t="n">
         <v>1239</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D37" t="n">
         <v>577</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>69</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>On vous voit ceux qui font semblant 🤣 #teamwork #teamworkmakesthedreamwork #girlssupportgirls</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H37" t="n">
         <v>11.35</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I37" t="n">
         <v>7.74375</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.60625</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L37" t="n">
         <v>0.43125</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7473440222169107734</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B38" t="n">
         <v>1948</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C38" t="n">
         <v>314</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D38" t="n">
         <v>29</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>26</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>All of my « girly things » package 🎀🫧🫦🩰
 #girlythings #girls #girltherapy #aestheticvibes</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H38" t="n">
         <v>17.60780287474332</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I38" t="n">
         <v>16.11909650924025</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>1.48870636550308</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L38" t="n">
         <v>1.334702258726899</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7473102439961365782</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B39" t="n">
         <v>9317</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C39" t="n">
         <v>701</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D39" t="n">
         <v>16</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>46</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>so girlyyyyy 🎀🩰
 #girls #girlythings #girltherapy #pyjamas #pinklover #pyjamaset #aestheticvibes #newyorker #fyp</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H39" t="n">
         <v>7.695610174949017</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I39" t="n">
         <v>7.523881077600087</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>0.1717290973489321</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L39" t="n">
         <v>0.4937211548781796</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7472794088912194839</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B40" t="n">
         <v>1148</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C40" t="n">
         <v>226</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D40" t="n">
         <v>29</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>15</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>#nightroutine #girltherapy #skincare #pilates #girlythings #selfcare</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H40" t="n">
         <v>22.21254355400697</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I40" t="n">
         <v>19.68641114982578</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>2.526132404181185</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L40" t="n">
         <v>1.306620209059233</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7472420422261247254</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B41" t="n">
         <v>1446</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C41" t="n">
         <v>296</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D41" t="n">
         <v>27</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>11</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>🫦🫦 #girltherapy #girls #girlythings #makeup #selfcare #fyp</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H41" t="n">
         <v>22.3374827109267</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I41" t="n">
         <v>20.47026279391424</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>1.867219917012448</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L41" t="n">
         <v>0.7607192254495159</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7472063690146155798</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B42" t="n">
         <v>991</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C42" t="n">
         <v>202</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D42" t="n">
         <v>13</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>9</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>girl therapy ✨🎀
 #girltherapy #pinterestaesthetic #welness #girls #girlythings #selfcare</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H42" t="n">
         <v>21.69525731584258</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I42" t="n">
         <v>20.38345105953582</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>1.311806256306761</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L42" t="n">
         <v>0.9081735620585267</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-17</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7471928901875338518</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>2853</v>
-      </c>
-      <c r="C40" t="n">
-        <v>311</v>
-      </c>
-      <c r="D40" t="n">
-        <v>11</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
-        <v>26</v>
-      </c>
-      <c r="G40" t="inlineStr">
-        <is>
-          <t>so gooood 🤩 #breakfast #favoritesnack #alpro #banane #granola #healthyrecipes #healthybreakfast #fyp</t>
-        </is>
-      </c>
-      <c r="H40" t="n">
-        <v>11.28636522958289</v>
-      </c>
-      <c r="I40" t="n">
-        <v>10.90080616894497</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0.385559060637925</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0.9113214160532772</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7471689033307999510</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>5321</v>
-      </c>
-      <c r="C41" t="n">
-        <v>442</v>
-      </c>
-      <c r="D41" t="n">
-        <v>199</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
-        <v>18</v>
-      </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>so gooood 🤩 #breakfast #favoritesnack #alpro #banane #granola #healthyrecipes #healthybreakfast #fyp</t>
-        </is>
-      </c>
-      <c r="H41" t="n">
-        <v>12.04660778049239</v>
-      </c>
-      <c r="I41" t="n">
-        <v>8.306709265175719</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>3.73989851531667</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0.338282277767337</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7471594875826294038</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>819</v>
-      </c>
-      <c r="C42" t="n">
-        <v>147</v>
-      </c>
-      <c r="D42" t="n">
-        <v>19</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
-        <v>9</v>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>🫶🏼🫶🏼 #girlssupportgirls #teamwork #teamworktrend #tiktoktrend #teamworkmakesthedreamwork</t>
-        </is>
-      </c>
-      <c r="H42" t="n">
-        <v>20.26862026862027</v>
-      </c>
-      <c r="I42" t="n">
-        <v>17.94871794871795</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>2.31990231990232</v>
-      </c>
-      <c r="L42" t="n">
-        <v>1.098901098901099</v>
-      </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
-        <is>
-          <t>2025-02-15</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7471328579033419030</t>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7471928901875338518</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>718</v>
+        <v>2853</v>
       </c>
       <c r="C43" t="n">
-        <v>77</v>
+        <v>311</v>
       </c>
       <c r="D43" t="n">
         <v>11</v>
@@ -2597,389 +2599,438 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
+        <v>26</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>so gooood 🤩 #breakfast #favoritesnack #alpro #banane #granola #healthyrecipes #healthybreakfast #fyp</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>11.28636522958289</v>
+      </c>
+      <c r="I43" t="n">
+        <v>10.90080616894497</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.385559060637925</v>
+      </c>
+      <c r="L43" t="n">
+        <v>0.9113214160532772</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7471689033307999510</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>5321</v>
+      </c>
+      <c r="C44" t="n">
+        <v>442</v>
+      </c>
+      <c r="D44" t="n">
+        <v>199</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
+        <v>18</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>so gooood 🤩 #breakfast #favoritesnack #alpro #banane #granola #healthyrecipes #healthybreakfast #fyp</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>12.04660778049239</v>
+      </c>
+      <c r="I44" t="n">
+        <v>8.306709265175719</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>3.73989851531667</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0.338282277767337</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7471594875826294038</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>819</v>
+      </c>
+      <c r="C45" t="n">
+        <v>147</v>
+      </c>
+      <c r="D45" t="n">
+        <v>19</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>9</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>🫶🏼🫶🏼 #girlssupportgirls #teamwork #teamworktrend #tiktoktrend #teamworkmakesthedreamwork</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>20.26862026862027</v>
+      </c>
+      <c r="I45" t="n">
+        <v>17.94871794871795</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>2.31990231990232</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1.098901098901099</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>2025-02-15</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@ugcby.carla/video/7471328579033419030</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>718</v>
+      </c>
+      <c r="C46" t="n">
+        <v>77</v>
+      </c>
+      <c r="D46" t="n">
+        <v>11</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>2</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>il est incrrr @Etam 🤩🤩
 #etam #body #saintvalentin #giftideas #girls #fyp</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H46" t="n">
         <v>12.25626740947075</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I46" t="n">
         <v>10.72423398328691</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>1.532033426183844</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L46" t="n">
         <v>0.2785515320334262</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/photo/7471225509003791638</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B47" t="n">
         <v>832</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C47" t="n">
         <v>112</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D47" t="n">
         <v>5</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>4</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>on rêve toutes de ça les filles 😍🥹🫶🏼
 #prpackage #gift #gifting #ugc #ugccreator #ugccontentcreator</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H47" t="n">
         <v>14.0625</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I47" t="n">
         <v>13.46153846153846</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>0.6009615384615385</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L47" t="n">
         <v>0.4807692307692308</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7470946198703197462</t>
         </is>
       </c>
-      <c r="B45" t="n">
+      <c r="B48" t="n">
         <v>1034</v>
       </c>
-      <c r="C45" t="n">
+      <c r="C48" t="n">
         <v>140</v>
       </c>
-      <c r="D45" t="n">
+      <c r="D48" t="n">
         <v>10</v>
       </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>5</v>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>#franui #framboise #chocolate #foodtok #snackideas #degustation #easyfood #rasberry #cutefood</t>
         </is>
       </c>
-      <c r="H45" t="n">
+      <c r="H48" t="n">
         <v>14.50676982591876</v>
       </c>
-      <c r="I45" t="n">
+      <c r="I48" t="n">
         <v>13.53965183752418</v>
       </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>0.9671179883945842</v>
       </c>
-      <c r="L45" t="n">
+      <c r="L48" t="n">
         <v>0.4835589941972921</v>
       </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7470853666669464834</t>
         </is>
       </c>
-      <c r="B46" t="n">
+      <c r="B49" t="n">
         <v>932</v>
       </c>
-      <c r="C46" t="n">
+      <c r="C49" t="n">
         <v>158</v>
       </c>
-      <c r="D46" t="n">
+      <c r="D49" t="n">
         <v>17</v>
       </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>7</v>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>essentials 🫶🏼🫶🏼
 #essentials #girlythings #girls #girlssupportgirls #aestheticvideos #makeup #rhode</t>
         </is>
       </c>
-      <c r="H46" t="n">
+      <c r="H49" t="n">
         <v>18.77682403433476</v>
       </c>
-      <c r="I46" t="n">
+      <c r="I49" t="n">
         <v>16.95278969957082</v>
       </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>1.824034334763948</v>
       </c>
-      <c r="L46" t="n">
+      <c r="L49" t="n">
         <v>0.7510729613733905</v>
       </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7470573117824339222</t>
         </is>
       </c>
-      <c r="B47" t="n">
+      <c r="B50" t="n">
         <v>6090</v>
       </c>
-      <c r="C47" t="n">
+      <c r="C50" t="n">
         <v>580</v>
       </c>
-      <c r="D47" t="n">
+      <c r="D50" t="n">
         <v>155</v>
       </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>48</v>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>let’s go giiiirls 🫶🏼🫶🏼
 #ugc #ugccreator #ugccontentcreator #ugccommunity #ugctips #girls #trend10k</t>
         </is>
       </c>
-      <c r="H47" t="n">
+      <c r="H50" t="n">
         <v>12.06896551724138</v>
       </c>
-      <c r="I47" t="n">
+      <c r="I50" t="n">
         <v>9.523809523809524</v>
       </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>2.545155993431856</v>
       </c>
-      <c r="L47" t="n">
+      <c r="L50" t="n">
         <v>0.7881773399014778</v>
       </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-13</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@ugcby.carla/video/7460517574124588310</t>
         </is>
       </c>
-      <c r="B48" t="n">
+      <c r="B51" t="n">
         <v>1620</v>
       </c>
-      <c r="C48" t="n">
+      <c r="C51" t="n">
         <v>242</v>
       </c>
-      <c r="D48" t="n">
+      <c r="D51" t="n">
         <v>9</v>
       </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>9</v>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>🎀🎀 #girls #beauty #makeup #aestheticvideos #aestheticvibes #pinkaesthetic #cleangirl #girlythings</t>
         </is>
       </c>
-      <c r="H48" t="n">
+      <c r="H51" t="n">
         <v>15.49382716049383</v>
       </c>
-      <c r="I48" t="n">
+      <c r="I51" t="n">
         <v>14.93827160493827</v>
       </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="L48" t="n">
+      <c r="L51" t="n">
         <v>0.5555555555555556</v>
       </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-01-16</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/video/7459802669717228822</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>1358</v>
-      </c>
-      <c r="C49" t="n">
-        <v>165</v>
-      </c>
-      <c r="D49" t="n">
-        <v>6</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>2</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>💕🦢🎀🍦
-#girls #girlssupportgirls #beauty #makeup #aestheticvideos #aestheticvibes #pinkaesthetic</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>12.5920471281296</v>
-      </c>
-      <c r="I49" t="n">
-        <v>12.15022091310751</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0.4418262150220913</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0.1472754050073638</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@ugcby.carla/photo/7459419211475979542</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>3778</v>
-      </c>
-      <c r="C50" t="n">
-        <v>130</v>
-      </c>
-      <c r="D50" t="n">
-        <v>8</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>15</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>#makeupbag #bestproducts #makeup #browlift #browliabeauty #diorbeauty #hudabeauty #benefit</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>3.652726310217046</v>
-      </c>
-      <c r="I50" t="n">
-        <v>3.440974060349391</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>0.2117522498676549</v>
-      </c>
-      <c r="L50" t="n">
-        <v>0.3970354685018528</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-01-14</t>
         </is>
       </c>
     </row>
